--- a/data_craw/quarter/balance_sheet_quarter/shb.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/shb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1412154000000</v>
+        <v>1640371000000</v>
       </c>
       <c r="C4" t="n">
-        <v>1754801000000</v>
+        <v>1619926000000</v>
       </c>
       <c r="D4" t="n">
-        <v>1564767000000</v>
+        <v>1815644000000</v>
       </c>
       <c r="E4" t="n">
-        <v>1514187000000</v>
+        <v>1696479000000</v>
       </c>
       <c r="F4" t="n">
-        <v>1640371000000</v>
+        <v>1905082000000</v>
       </c>
       <c r="G4" t="n">
-        <v>1619926000000</v>
+        <v>1878292000000</v>
       </c>
       <c r="H4" t="n">
-        <v>1815644000000</v>
+        <v>1675459000000</v>
       </c>
       <c r="I4" t="n">
-        <v>1696479000000</v>
+        <v>2075903000000</v>
       </c>
       <c r="J4" t="n">
-        <v>1905082000000</v>
+        <v>1967777000000</v>
       </c>
       <c r="K4" t="n">
-        <v>1878292000000</v>
+        <v>1897546000000</v>
       </c>
       <c r="L4" t="n">
-        <v>1675459000000</v>
+        <v>1478314000000</v>
       </c>
       <c r="M4" t="n">
-        <v>2075903000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1967777000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1897546000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1478314000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>1443956000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -674,53 +666,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5686277000000</v>
+        <v>27335300000000</v>
       </c>
       <c r="C7" t="n">
-        <v>10162106000000</v>
+        <v>14804998000000</v>
       </c>
       <c r="D7" t="n">
-        <v>4279318000000</v>
+        <v>5043573000000</v>
       </c>
       <c r="E7" t="n">
-        <v>9883875000000</v>
+        <v>7266451000000</v>
       </c>
       <c r="F7" t="n">
-        <v>27335300000000</v>
+        <v>8575463000000</v>
       </c>
       <c r="G7" t="n">
-        <v>14804998000000</v>
+        <v>14350905000000</v>
       </c>
       <c r="H7" t="n">
-        <v>5043573000000</v>
+        <v>6992969000000</v>
       </c>
       <c r="I7" t="n">
-        <v>7266451000000</v>
+        <v>11184736000000</v>
       </c>
       <c r="J7" t="n">
-        <v>8575463000000</v>
+        <v>7120224000000</v>
       </c>
       <c r="K7" t="n">
-        <v>14350905000000</v>
+        <v>15144721000000</v>
       </c>
       <c r="L7" t="n">
-        <v>6992969000000</v>
+        <v>17537834000000</v>
       </c>
       <c r="M7" t="n">
-        <v>11184736000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7120224000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>15144721000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>17537834000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>30143998000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,53 +782,45 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26962037000000</v>
+        <v>27335300000000</v>
       </c>
       <c r="C11" t="n">
-        <v>33711348000000</v>
+        <v>31252851000000</v>
       </c>
       <c r="D11" t="n">
-        <v>25361596000000</v>
+        <v>31010315000000</v>
       </c>
       <c r="E11" t="n">
-        <v>39439734000000</v>
+        <v>44951592000000</v>
       </c>
       <c r="F11" t="n">
-        <v>27335300000000</v>
+        <v>48801267000000</v>
       </c>
       <c r="G11" t="n">
-        <v>31252851000000</v>
+        <v>64132885000000</v>
       </c>
       <c r="H11" t="n">
-        <v>31010315000000</v>
+        <v>60432537000000</v>
       </c>
       <c r="I11" t="n">
-        <v>44951592000000</v>
+        <v>50959791000000</v>
       </c>
       <c r="J11" t="n">
-        <v>48801267000000</v>
+        <v>50201289000000</v>
       </c>
       <c r="K11" t="n">
-        <v>64132885000000</v>
+        <v>63391451000000</v>
       </c>
       <c r="L11" t="n">
-        <v>60432537000000</v>
+        <v>56572446000000</v>
       </c>
       <c r="M11" t="n">
-        <v>50959791000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>50201289000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>63391451000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>56572446000000</v>
-      </c>
-      <c r="Q11" t="n">
         <v>68923122000000</v>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,53 +829,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26937037000000</v>
+        <v>27335300000000</v>
       </c>
       <c r="C12" t="n">
-        <v>33583940000000</v>
+        <v>31252175000000</v>
       </c>
       <c r="D12" t="n">
-        <v>25361596000000</v>
+        <v>30995167000000</v>
       </c>
       <c r="E12" t="n">
-        <v>38139734000000</v>
+        <v>41894726000000</v>
       </c>
       <c r="F12" t="n">
-        <v>27335300000000</v>
+        <v>46300711000000</v>
       </c>
       <c r="G12" t="n">
-        <v>31252175000000</v>
+        <v>55909226000000</v>
       </c>
       <c r="H12" t="n">
-        <v>30995167000000</v>
+        <v>55032141000000</v>
       </c>
       <c r="I12" t="n">
-        <v>41894726000000</v>
+        <v>39318417000000</v>
       </c>
       <c r="J12" t="n">
-        <v>46300711000000</v>
+        <v>40928872000000</v>
       </c>
       <c r="K12" t="n">
-        <v>55909226000000</v>
+        <v>53027274000000</v>
       </c>
       <c r="L12" t="n">
-        <v>55032141000000</v>
+        <v>46085524000000</v>
       </c>
       <c r="M12" t="n">
-        <v>39318417000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>40928872000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>53027274000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>46085524000000</v>
-      </c>
-      <c r="Q12" t="n">
         <v>52827075000000</v>
       </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -907,50 +875,44 @@
           <t>2. Trả trước cho người bán ngắn hạn</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>25000000000</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>127408000000</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>676000000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15148000000</v>
+      </c>
       <c r="E13" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>3056866000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2500556000000</v>
+      </c>
       <c r="G13" t="n">
-        <v>676000000</v>
+        <v>8263453000000</v>
       </c>
       <c r="H13" t="n">
-        <v>15148000000</v>
+        <v>5440190000000</v>
       </c>
       <c r="I13" t="n">
-        <v>3056866000000</v>
+        <v>11681168000000</v>
       </c>
       <c r="J13" t="n">
-        <v>2500556000000</v>
+        <v>9312211000000</v>
       </c>
       <c r="K13" t="n">
-        <v>8263453000000</v>
+        <v>10463971000000</v>
       </c>
       <c r="L13" t="n">
-        <v>5440190000000</v>
+        <v>10586716000000</v>
       </c>
       <c r="M13" t="n">
-        <v>11681168000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9312211000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>10463971000000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>10586716000000</v>
-      </c>
-      <c r="Q13" t="n">
         <v>16215209000000</v>
       </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1078,31 +1040,31 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>-39794000000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-39794000000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-39794000000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-39794000000</v>
+      </c>
       <c r="K19" t="n">
-        <v>-39794000000</v>
+        <v>-99794000000</v>
       </c>
       <c r="L19" t="n">
-        <v>-39794000000</v>
+        <v>-99794000000</v>
       </c>
       <c r="M19" t="n">
-        <v>-39794000000</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-39794000000</v>
-      </c>
-      <c r="O19" t="n">
-        <v>-99794000000</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-99794000000</v>
-      </c>
-      <c r="Q19" t="n">
         <v>-119162000000</v>
       </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1111,53 +1073,45 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>608000000</v>
+        <v>437000000</v>
       </c>
       <c r="C20" t="n">
-        <v>502000000</v>
+        <v>960000000</v>
       </c>
       <c r="D20" t="n">
-        <v>502000000</v>
+        <v>3639164000000</v>
       </c>
       <c r="E20" t="n">
-        <v>437000000</v>
+        <v>1861000000</v>
       </c>
       <c r="F20" t="n">
-        <v>437000000</v>
+        <v>1862000000</v>
       </c>
       <c r="G20" t="n">
-        <v>960000000</v>
+        <v>3245000000</v>
       </c>
       <c r="H20" t="n">
-        <v>3639164000000</v>
+        <v>3245000000</v>
       </c>
       <c r="I20" t="n">
-        <v>1861000000</v>
+        <v>2051000000</v>
       </c>
       <c r="J20" t="n">
-        <v>1862000000</v>
+        <v>2051000000</v>
       </c>
       <c r="K20" t="n">
-        <v>3245000000</v>
+        <v>1547000000</v>
       </c>
       <c r="L20" t="n">
-        <v>3245000000</v>
+        <v>1547000000</v>
       </c>
       <c r="M20" t="n">
-        <v>2051000000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2051000000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1547000000</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1547000000</v>
-      </c>
-      <c r="Q20" t="n">
         <v>2341000000</v>
       </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1172,7 +1126,7 @@
         <v>3889000000</v>
       </c>
       <c r="D21" t="n">
-        <v>3889000000</v>
+        <v>3642093000000</v>
       </c>
       <c r="E21" t="n">
         <v>3889000000</v>
@@ -1181,16 +1135,16 @@
         <v>3889000000</v>
       </c>
       <c r="G21" t="n">
-        <v>3889000000</v>
+        <v>3881000000</v>
       </c>
       <c r="H21" t="n">
-        <v>3642093000000</v>
+        <v>3881000000</v>
       </c>
       <c r="I21" t="n">
-        <v>3889000000</v>
+        <v>3881000000</v>
       </c>
       <c r="J21" t="n">
-        <v>3889000000</v>
+        <v>3881000000</v>
       </c>
       <c r="K21" t="n">
         <v>3881000000</v>
@@ -1201,18 +1155,10 @@
       <c r="M21" t="n">
         <v>3881000000</v>
       </c>
-      <c r="N21" t="n">
-        <v>3881000000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3881000000</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3881000000</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3881000000</v>
-      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1221,53 +1167,45 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3281000000</v>
+        <v>-3452000000</v>
       </c>
       <c r="C22" t="n">
-        <v>-3387000000</v>
+        <v>-2929000000</v>
       </c>
       <c r="D22" t="n">
-        <v>-3387000000</v>
+        <v>-2929000000</v>
       </c>
       <c r="E22" t="n">
-        <v>-3452000000</v>
+        <v>-2028000000</v>
       </c>
       <c r="F22" t="n">
-        <v>-3452000000</v>
+        <v>-2027000000</v>
       </c>
       <c r="G22" t="n">
-        <v>-2929000000</v>
+        <v>-636000000</v>
       </c>
       <c r="H22" t="n">
-        <v>-2929000000</v>
+        <v>-636000000</v>
       </c>
       <c r="I22" t="n">
-        <v>-2028000000</v>
+        <v>-1830000000</v>
       </c>
       <c r="J22" t="n">
-        <v>-2027000000</v>
+        <v>-1830000000</v>
       </c>
       <c r="K22" t="n">
-        <v>-636000000</v>
+        <v>-2334000000</v>
       </c>
       <c r="L22" t="n">
-        <v>-636000000</v>
+        <v>-2334000000</v>
       </c>
       <c r="M22" t="n">
-        <v>-1830000000</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-1830000000</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-2334000000</v>
-      </c>
-      <c r="P22" t="n">
-        <v>-2334000000</v>
-      </c>
-      <c r="Q22" t="n">
         <v>-1540000000</v>
       </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1276,47 +1214,41 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>152923000000</v>
+        <v>160780000000</v>
       </c>
       <c r="C23" t="n">
-        <v>172946000000</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>133872000000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>62325000000</v>
+      </c>
       <c r="E23" t="n">
-        <v>152036000000</v>
+        <v>167525000000</v>
       </c>
       <c r="F23" t="n">
-        <v>160780000000</v>
+        <v>402547000000</v>
       </c>
       <c r="G23" t="n">
-        <v>133872000000</v>
+        <v>252448000000</v>
       </c>
       <c r="H23" t="n">
-        <v>62325000000</v>
-      </c>
-      <c r="I23" t="n">
-        <v>167525000000</v>
-      </c>
-      <c r="J23" t="n">
-        <v>402547000000</v>
-      </c>
+        <v>260257000000</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>252448000000</v>
+        <v>269772000000</v>
       </c>
       <c r="L23" t="n">
-        <v>260257000000</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>389427000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>145447000000</v>
+      </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>269772000000</v>
-      </c>
-      <c r="P23" t="n">
-        <v>389427000000</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>145447000000</v>
-      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1463,53 +1395,45 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>160834000000</v>
+        <v>133140000000</v>
       </c>
       <c r="C30" t="n">
-        <v>160834000000</v>
+        <v>133140000000</v>
       </c>
       <c r="D30" t="n">
         <v>133140000000</v>
       </c>
       <c r="E30" t="n">
-        <v>133140000000</v>
+        <v>131640000000</v>
       </c>
       <c r="F30" t="n">
-        <v>133140000000</v>
+        <v>131634000000</v>
       </c>
       <c r="G30" t="n">
-        <v>133140000000</v>
+        <v>131652000000</v>
       </c>
       <c r="H30" t="n">
-        <v>133140000000</v>
+        <v>126795000000</v>
       </c>
       <c r="I30" t="n">
-        <v>131640000000</v>
+        <v>126699000000</v>
       </c>
       <c r="J30" t="n">
-        <v>131634000000</v>
+        <v>126699000000</v>
       </c>
       <c r="K30" t="n">
-        <v>131652000000</v>
+        <v>46699000000</v>
       </c>
       <c r="L30" t="n">
-        <v>126795000000</v>
+        <v>46699000000</v>
       </c>
       <c r="M30" t="n">
-        <v>126699000000</v>
-      </c>
-      <c r="N30" t="n">
-        <v>126699000000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>46699000000</v>
-      </c>
-      <c r="P30" t="n">
-        <v>46699000000</v>
-      </c>
-      <c r="Q30" t="n">
         <v>390128000000</v>
       </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1574,13 +1498,13 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>343494000000</v>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="n">
-        <v>343494000000</v>
-      </c>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1598,44 +1522,36 @@
         <v>165891000000</v>
       </c>
       <c r="E34" t="n">
-        <v>165891000000</v>
+        <v>164391000000</v>
       </c>
       <c r="F34" t="n">
-        <v>165891000000</v>
+        <v>164391000000</v>
       </c>
       <c r="G34" t="n">
-        <v>165891000000</v>
+        <v>164391000000</v>
       </c>
       <c r="H34" t="n">
-        <v>165891000000</v>
+        <v>158391000000</v>
       </c>
       <c r="I34" t="n">
-        <v>164391000000</v>
+        <v>158391000000</v>
       </c>
       <c r="J34" t="n">
-        <v>164391000000</v>
+        <v>158272000000</v>
       </c>
       <c r="K34" t="n">
-        <v>164391000000</v>
+        <v>158272000000</v>
       </c>
       <c r="L34" t="n">
-        <v>158391000000</v>
+        <v>158272000000</v>
       </c>
       <c r="M34" t="n">
-        <v>158391000000</v>
-      </c>
-      <c r="N34" t="n">
         <v>158272000000</v>
       </c>
-      <c r="O34" t="n">
-        <v>158272000000</v>
-      </c>
-      <c r="P34" t="n">
-        <v>158272000000</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>158272000000</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1690,10 +1606,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-5057000000</v>
+        <v>-32751000000</v>
       </c>
       <c r="C37" t="n">
-        <v>-5057000000</v>
+        <v>-32751000000</v>
       </c>
       <c r="D37" t="n">
         <v>-32751000000</v>
@@ -1702,41 +1618,33 @@
         <v>-32751000000</v>
       </c>
       <c r="F37" t="n">
-        <v>-32751000000</v>
+        <v>-32757000000</v>
       </c>
       <c r="G37" t="n">
-        <v>-32751000000</v>
+        <v>-32739000000</v>
       </c>
       <c r="H37" t="n">
-        <v>-32751000000</v>
+        <v>-31596000000</v>
       </c>
       <c r="I37" t="n">
-        <v>-32751000000</v>
+        <v>-31692000000</v>
       </c>
       <c r="J37" t="n">
-        <v>-32757000000</v>
+        <v>-31573000000</v>
       </c>
       <c r="K37" t="n">
-        <v>-32739000000</v>
+        <v>-111573000000</v>
       </c>
       <c r="L37" t="n">
-        <v>-31596000000</v>
+        <v>-111573000000</v>
       </c>
       <c r="M37" t="n">
-        <v>-31692000000</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-31573000000</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-111573000000</v>
-      </c>
-      <c r="P37" t="n">
-        <v>-111573000000</v>
-      </c>
-      <c r="Q37" t="n">
         <v>-111638000000</v>
       </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1745,53 +1653,45 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4816676000000</v>
+        <v>4875964000000</v>
       </c>
       <c r="C38" t="n">
-        <v>4817510000000</v>
+        <v>4882380000000</v>
       </c>
       <c r="D38" t="n">
-        <v>4823432000000</v>
+        <v>4890368000000</v>
       </c>
       <c r="E38" t="n">
-        <v>4860520000000</v>
+        <v>4888835000000</v>
       </c>
       <c r="F38" t="n">
-        <v>4875964000000</v>
+        <v>4882869000000</v>
       </c>
       <c r="G38" t="n">
-        <v>4882380000000</v>
+        <v>4989872000000</v>
       </c>
       <c r="H38" t="n">
-        <v>4890368000000</v>
+        <v>4981820000000</v>
       </c>
       <c r="I38" t="n">
-        <v>4888835000000</v>
+        <v>4950570000000</v>
       </c>
       <c r="J38" t="n">
-        <v>4882869000000</v>
+        <v>4942895000000</v>
       </c>
       <c r="K38" t="n">
-        <v>4989872000000</v>
+        <v>4960222000000</v>
       </c>
       <c r="L38" t="n">
-        <v>4981820000000</v>
+        <v>4991698000000</v>
       </c>
       <c r="M38" t="n">
-        <v>4950570000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>4942895000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>4960222000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4991698000000</v>
-      </c>
-      <c r="Q38" t="n">
         <v>5001163000000</v>
       </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1800,53 +1700,45 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501357000000</v>
+        <v>529761000000</v>
       </c>
       <c r="C39" t="n">
-        <v>498337000000</v>
+        <v>532985000000</v>
       </c>
       <c r="D39" t="n">
-        <v>502690000000</v>
+        <v>535326000000</v>
       </c>
       <c r="E39" t="n">
-        <v>517629000000</v>
+        <v>536925000000</v>
       </c>
       <c r="F39" t="n">
-        <v>529761000000</v>
+        <v>530998000000</v>
       </c>
       <c r="G39" t="n">
-        <v>532985000000</v>
+        <v>536012000000</v>
       </c>
       <c r="H39" t="n">
-        <v>535326000000</v>
+        <v>526254000000</v>
       </c>
       <c r="I39" t="n">
-        <v>536925000000</v>
+        <v>500715000000</v>
       </c>
       <c r="J39" t="n">
-        <v>530998000000</v>
+        <v>490120000000</v>
       </c>
       <c r="K39" t="n">
-        <v>536012000000</v>
+        <v>502854000000</v>
       </c>
       <c r="L39" t="n">
-        <v>526254000000</v>
+        <v>526347000000</v>
       </c>
       <c r="M39" t="n">
-        <v>500715000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>490120000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>502854000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>526347000000</v>
-      </c>
-      <c r="Q39" t="n">
         <v>525542000000</v>
       </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1855,53 +1747,45 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1210026000000</v>
+        <v>1275212000000</v>
       </c>
       <c r="C40" t="n">
-        <v>1222537000000</v>
+        <v>1288934000000</v>
       </c>
       <c r="D40" t="n">
-        <v>1227951000000</v>
+        <v>1305346000000</v>
       </c>
       <c r="E40" t="n">
-        <v>1254711000000</v>
+        <v>1311071000000</v>
       </c>
       <c r="F40" t="n">
-        <v>1275212000000</v>
+        <v>1312749000000</v>
       </c>
       <c r="G40" t="n">
-        <v>1288934000000</v>
+        <v>1318278000000</v>
       </c>
       <c r="H40" t="n">
-        <v>1305346000000</v>
+        <v>1319337000000</v>
       </c>
       <c r="I40" t="n">
-        <v>1311071000000</v>
+        <v>1276925000000</v>
       </c>
       <c r="J40" t="n">
-        <v>1312749000000</v>
+        <v>1265237000000</v>
       </c>
       <c r="K40" t="n">
-        <v>1318278000000</v>
+        <v>1287149000000</v>
       </c>
       <c r="L40" t="n">
-        <v>1319337000000</v>
+        <v>1330157000000</v>
       </c>
       <c r="M40" t="n">
-        <v>1276925000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1265237000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1287149000000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1330157000000</v>
-      </c>
-      <c r="Q40" t="n">
         <v>1304008000000</v>
       </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1910,53 +1794,45 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-708669000000</v>
+        <v>-745451000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-724200000000</v>
+        <v>-755949000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-725261000000</v>
+        <v>-770020000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-737082000000</v>
+        <v>-774146000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-745451000000</v>
+        <v>-781751000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-755949000000</v>
+        <v>-782266000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-770020000000</v>
+        <v>-793083000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-774146000000</v>
+        <v>-776110000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-781751000000</v>
+        <v>-775117000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-782266000000</v>
+        <v>-784295000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-793083000000</v>
+        <v>-803810000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-776110000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-775117000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-784295000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-803810000000</v>
-      </c>
-      <c r="Q41" t="n">
         <v>-778466000000</v>
       </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1964,48 +1840,46 @@
           <t>2. Tài sản cố định thuê tài chính</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>17240000000</v>
+      </c>
+      <c r="C42" t="n">
+        <v>16319000000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>15417000000</v>
+      </c>
       <c r="E42" t="n">
-        <v>18337000000</v>
+        <v>14624000000</v>
       </c>
       <c r="F42" t="n">
-        <v>17240000000</v>
+        <v>13180000000</v>
       </c>
       <c r="G42" t="n">
-        <v>16319000000</v>
+        <v>11076000000</v>
       </c>
       <c r="H42" t="n">
-        <v>15417000000</v>
+        <v>10006000000</v>
       </c>
       <c r="I42" t="n">
-        <v>14624000000</v>
+        <v>7507000000</v>
       </c>
       <c r="J42" t="n">
-        <v>13180000000</v>
+        <v>6626000000</v>
       </c>
       <c r="K42" t="n">
-        <v>11076000000</v>
+        <v>5826000000</v>
       </c>
       <c r="L42" t="n">
-        <v>10006000000</v>
+        <v>5548000000</v>
       </c>
       <c r="M42" t="n">
-        <v>7507000000</v>
-      </c>
-      <c r="N42" t="n">
-        <v>6626000000</v>
-      </c>
-      <c r="O42" t="n">
-        <v>5826000000</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5548000000</v>
-      </c>
-      <c r="Q42" t="n">
         <v>3214000000</v>
       </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2013,48 +1887,46 @@
           <t>- Nguyên giá</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>22307000000</v>
+      </c>
+      <c r="C43" t="n">
+        <v>22049000000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>21772000000</v>
+      </c>
       <c r="E43" t="n">
-        <v>22764000000</v>
+        <v>21627000000</v>
       </c>
       <c r="F43" t="n">
-        <v>22307000000</v>
+        <v>20494000000</v>
       </c>
       <c r="G43" t="n">
-        <v>22049000000</v>
+        <v>18163000000</v>
       </c>
       <c r="H43" t="n">
-        <v>21772000000</v>
+        <v>17337000000</v>
       </c>
       <c r="I43" t="n">
-        <v>21627000000</v>
+        <v>13797000000</v>
       </c>
       <c r="J43" t="n">
-        <v>20494000000</v>
+        <v>12968000000</v>
       </c>
       <c r="K43" t="n">
-        <v>18163000000</v>
+        <v>12211000000</v>
       </c>
       <c r="L43" t="n">
-        <v>17337000000</v>
+        <v>12475000000</v>
       </c>
       <c r="M43" t="n">
-        <v>13797000000</v>
-      </c>
-      <c r="N43" t="n">
-        <v>12968000000</v>
-      </c>
-      <c r="O43" t="n">
-        <v>12211000000</v>
-      </c>
-      <c r="P43" t="n">
-        <v>12475000000</v>
-      </c>
-      <c r="Q43" t="n">
         <v>8476000000</v>
       </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2062,48 +1934,46 @@
           <t>- Giá trị hao mòn lũy kế</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>-5067000000</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-5730000000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-6355000000</v>
+      </c>
       <c r="E44" t="n">
-        <v>-4427000000</v>
+        <v>-7003000000</v>
       </c>
       <c r="F44" t="n">
-        <v>-5067000000</v>
+        <v>-7314000000</v>
       </c>
       <c r="G44" t="n">
-        <v>-5730000000</v>
+        <v>-7087000000</v>
       </c>
       <c r="H44" t="n">
-        <v>-6355000000</v>
+        <v>-7331000000</v>
       </c>
       <c r="I44" t="n">
-        <v>-7003000000</v>
+        <v>-6290000000</v>
       </c>
       <c r="J44" t="n">
-        <v>-7314000000</v>
+        <v>-6342000000</v>
       </c>
       <c r="K44" t="n">
-        <v>-7087000000</v>
+        <v>-6385000000</v>
       </c>
       <c r="L44" t="n">
-        <v>-7331000000</v>
+        <v>-6927000000</v>
       </c>
       <c r="M44" t="n">
-        <v>-6290000000</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-6342000000</v>
-      </c>
-      <c r="O44" t="n">
-        <v>-6385000000</v>
-      </c>
-      <c r="P44" t="n">
-        <v>-6927000000</v>
-      </c>
-      <c r="Q44" t="n">
         <v>-5262000000</v>
       </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2112,53 +1982,45 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4315319000000</v>
+        <v>4328963000000</v>
       </c>
       <c r="C45" t="n">
-        <v>4319173000000</v>
+        <v>4333076000000</v>
       </c>
       <c r="D45" t="n">
-        <v>4320742000000</v>
+        <v>4339625000000</v>
       </c>
       <c r="E45" t="n">
-        <v>4324554000000</v>
+        <v>4337286000000</v>
       </c>
       <c r="F45" t="n">
-        <v>4328963000000</v>
+        <v>4338691000000</v>
       </c>
       <c r="G45" t="n">
-        <v>4333076000000</v>
+        <v>4442784000000</v>
       </c>
       <c r="H45" t="n">
-        <v>4339625000000</v>
+        <v>4445560000000</v>
       </c>
       <c r="I45" t="n">
-        <v>4337286000000</v>
+        <v>4442348000000</v>
       </c>
       <c r="J45" t="n">
-        <v>4338691000000</v>
+        <v>4446149000000</v>
       </c>
       <c r="K45" t="n">
-        <v>4442784000000</v>
+        <v>4451542000000</v>
       </c>
       <c r="L45" t="n">
-        <v>4445560000000</v>
+        <v>4459803000000</v>
       </c>
       <c r="M45" t="n">
-        <v>4442348000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>4446149000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>4451542000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4459803000000</v>
-      </c>
-      <c r="Q45" t="n">
         <v>4472407000000</v>
       </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2167,53 +2029,45 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4581001000000</v>
+        <v>4616458000000</v>
       </c>
       <c r="C46" t="n">
-        <v>4590236000000</v>
+        <v>4623349000000</v>
       </c>
       <c r="D46" t="n">
-        <v>4603927000000</v>
+        <v>4632971000000</v>
       </c>
       <c r="E46" t="n">
-        <v>4609608000000</v>
+        <v>4633902000000</v>
       </c>
       <c r="F46" t="n">
-        <v>4616458000000</v>
+        <v>4638209000000</v>
       </c>
       <c r="G46" t="n">
-        <v>4623349000000</v>
+        <v>4747199000000</v>
       </c>
       <c r="H46" t="n">
-        <v>4632971000000</v>
+        <v>4754257000000</v>
       </c>
       <c r="I46" t="n">
-        <v>4633902000000</v>
+        <v>4754107000000</v>
       </c>
       <c r="J46" t="n">
-        <v>4638209000000</v>
+        <v>4762575000000</v>
       </c>
       <c r="K46" t="n">
-        <v>4747199000000</v>
+        <v>4772975000000</v>
       </c>
       <c r="L46" t="n">
-        <v>4754257000000</v>
+        <v>4786702000000</v>
       </c>
       <c r="M46" t="n">
-        <v>4754107000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>4762575000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>4772975000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4786702000000</v>
-      </c>
-      <c r="Q46" t="n">
         <v>4789988000000</v>
       </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2222,53 +2076,45 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-265682000000</v>
+        <v>-287495000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-271063000000</v>
+        <v>-290273000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-283185000000</v>
+        <v>-293346000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-285054000000</v>
+        <v>-296616000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-287495000000</v>
+        <v>-299518000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-290273000000</v>
+        <v>-304415000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-293346000000</v>
+        <v>-308697000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-296616000000</v>
+        <v>-311759000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-299518000000</v>
+        <v>-316426000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-304415000000</v>
+        <v>-321433000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-308697000000</v>
+        <v>-326899000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-311759000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-316426000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-321433000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-326899000000</v>
-      </c>
-      <c r="Q47" t="n">
         <v>-317581000000</v>
       </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2415,53 +2261,45 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>30751232000000</v>
+        <v>34537270000000</v>
       </c>
       <c r="C54" t="n">
-        <v>31193901000000</v>
+        <v>29450393000000</v>
       </c>
       <c r="D54" t="n">
-        <v>32116496000000</v>
+        <v>25689548000000</v>
       </c>
       <c r="E54" t="n">
-        <v>33290906000000</v>
+        <v>44945631000000</v>
       </c>
       <c r="F54" t="n">
-        <v>34537270000000</v>
+        <v>38642191000000</v>
       </c>
       <c r="G54" t="n">
-        <v>29450393000000</v>
+        <v>38267287000000</v>
       </c>
       <c r="H54" t="n">
-        <v>25689548000000</v>
+        <v>38454736000000</v>
       </c>
       <c r="I54" t="n">
-        <v>44945631000000</v>
+        <v>48962663000000</v>
       </c>
       <c r="J54" t="n">
-        <v>38642191000000</v>
+        <v>56286795000000</v>
       </c>
       <c r="K54" t="n">
-        <v>38267287000000</v>
+        <v>54346081000000</v>
       </c>
       <c r="L54" t="n">
-        <v>38454736000000</v>
+        <v>50202893000000</v>
       </c>
       <c r="M54" t="n">
-        <v>48962663000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>56286795000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>54346081000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>50202893000000</v>
-      </c>
-      <c r="Q54" t="n">
         <v>44953253000000</v>
       </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2470,53 +2308,45 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>13652906000000</v>
+        <v>15768455000000</v>
       </c>
       <c r="C55" t="n">
-        <v>12772563000000</v>
+        <v>17577827000000</v>
       </c>
       <c r="D55" t="n">
-        <v>15914554000000</v>
+        <v>13925993000000</v>
       </c>
       <c r="E55" t="n">
-        <v>12984815000000</v>
+        <v>26721757000000</v>
       </c>
       <c r="F55" t="n">
-        <v>15768455000000</v>
+        <v>18753964000000</v>
       </c>
       <c r="G55" t="n">
-        <v>17577827000000</v>
+        <v>28903342000000</v>
       </c>
       <c r="H55" t="n">
-        <v>13925993000000</v>
+        <v>25413896000000</v>
       </c>
       <c r="I55" t="n">
-        <v>26721757000000</v>
+        <v>31286059000000</v>
       </c>
       <c r="J55" t="n">
-        <v>18753964000000</v>
+        <v>36118893000000</v>
       </c>
       <c r="K55" t="n">
-        <v>28903342000000</v>
+        <v>37723265000000</v>
       </c>
       <c r="L55" t="n">
-        <v>25413896000000</v>
+        <v>34196793000000</v>
       </c>
       <c r="M55" t="n">
-        <v>31286059000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>36118893000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>37723265000000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>34196793000000</v>
-      </c>
-      <c r="Q55" t="n">
         <v>24536272000000</v>
       </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2525,53 +2355,45 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>10611748000000</v>
+        <v>13205401000000</v>
       </c>
       <c r="C56" t="n">
-        <v>8293269000000</v>
+        <v>7672216000000</v>
       </c>
       <c r="D56" t="n">
-        <v>9640658000000</v>
+        <v>9772341000000</v>
       </c>
       <c r="E56" t="n">
-        <v>11520512000000</v>
+        <v>10676894000000</v>
       </c>
       <c r="F56" t="n">
-        <v>13205401000000</v>
+        <v>13367645000000</v>
       </c>
       <c r="G56" t="n">
-        <v>7672216000000</v>
+        <v>6379154000000</v>
       </c>
       <c r="H56" t="n">
-        <v>9772341000000</v>
+        <v>8767930000000</v>
       </c>
       <c r="I56" t="n">
-        <v>10676894000000</v>
+        <v>10757423000000</v>
       </c>
       <c r="J56" t="n">
-        <v>13367645000000</v>
+        <v>12889356000000</v>
       </c>
       <c r="K56" t="n">
-        <v>6379154000000</v>
+        <v>15575386000000</v>
       </c>
       <c r="L56" t="n">
-        <v>8767930000000</v>
+        <v>13533513000000</v>
       </c>
       <c r="M56" t="n">
-        <v>10757423000000</v>
-      </c>
-      <c r="N56" t="n">
-        <v>12889356000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>15575386000000</v>
-      </c>
-      <c r="P56" t="n">
-        <v>13533513000000</v>
-      </c>
-      <c r="Q56" t="n">
         <v>17966060000000</v>
       </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2579,12 +2401,8 @@
           <t>3. Đầu tư góp vốn vào đơn vị khác</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>11095000000</v>
-      </c>
-      <c r="C57" t="n">
-        <v>11074000000</v>
-      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
@@ -2607,53 +2425,45 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>7629148000000</v>
+        <v>6327976000000</v>
       </c>
       <c r="C58" t="n">
-        <v>10597054000000</v>
+        <v>4523284000000</v>
       </c>
       <c r="D58" t="n">
-        <v>7073461000000</v>
+        <v>2338545000000</v>
       </c>
       <c r="E58" t="n">
-        <v>9330320000000</v>
+        <v>7895107000000</v>
       </c>
       <c r="F58" t="n">
-        <v>6327976000000</v>
+        <v>6868819000000</v>
       </c>
       <c r="G58" t="n">
-        <v>4523284000000</v>
+        <v>3240374000000</v>
       </c>
       <c r="H58" t="n">
-        <v>2338545000000</v>
+        <v>4528493000000</v>
       </c>
       <c r="I58" t="n">
-        <v>7895107000000</v>
+        <v>7228131000000</v>
       </c>
       <c r="J58" t="n">
-        <v>6868819000000</v>
+        <v>7584602000000</v>
       </c>
       <c r="K58" t="n">
-        <v>3240374000000</v>
+        <v>1174345000000</v>
       </c>
       <c r="L58" t="n">
-        <v>4528493000000</v>
+        <v>2598663000000</v>
       </c>
       <c r="M58" t="n">
-        <v>7228131000000</v>
-      </c>
-      <c r="N58" t="n">
-        <v>7584602000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1174345000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2598663000000</v>
-      </c>
-      <c r="Q58" t="n">
         <v>2570081000000</v>
       </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2869,53 +2679,45 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>357238825000000</v>
+        <v>401926236000000</v>
       </c>
       <c r="C68" t="n">
-        <v>365643130000000</v>
+        <v>412918017000000</v>
       </c>
       <c r="D68" t="n">
-        <v>368981764000000</v>
+        <v>418407609000000</v>
       </c>
       <c r="E68" t="n">
-        <v>391409818000000</v>
+        <v>458348937000000</v>
       </c>
       <c r="F68" t="n">
-        <v>401926236000000</v>
+        <v>464595281000000</v>
       </c>
       <c r="G68" t="n">
-        <v>412918017000000</v>
+        <v>506556379000000</v>
       </c>
       <c r="H68" t="n">
-        <v>418407609000000</v>
+        <v>515553313000000</v>
       </c>
       <c r="I68" t="n">
-        <v>458348937000000</v>
+        <v>522131059000000</v>
       </c>
       <c r="J68" t="n">
-        <v>464595281000000</v>
+        <v>528560025000000</v>
       </c>
       <c r="K68" t="n">
-        <v>506556379000000</v>
+        <v>551351129000000</v>
       </c>
       <c r="L68" t="n">
-        <v>515553313000000</v>
+        <v>570193860000000</v>
       </c>
       <c r="M68" t="n">
-        <v>522131059000000</v>
-      </c>
-      <c r="N68" t="n">
-        <v>528560025000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>551351129000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>570193860000000</v>
-      </c>
-      <c r="Q68" t="n">
         <v>585111645000000</v>
       </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2924,53 +2726,45 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2755143000000</v>
+        <v>641821000000</v>
       </c>
       <c r="C69" t="n">
-        <v>725071000000</v>
+        <v>609712000000</v>
       </c>
       <c r="D69" t="n">
-        <v>698519000000</v>
+        <v>586822000000</v>
       </c>
       <c r="E69" t="n">
-        <v>670384000000</v>
+        <v>557884000000</v>
       </c>
       <c r="F69" t="n">
-        <v>641821000000</v>
+        <v>677941000000</v>
       </c>
       <c r="G69" t="n">
-        <v>609712000000</v>
+        <v>1510983000000</v>
       </c>
       <c r="H69" t="n">
-        <v>586822000000</v>
+        <v>1484502000000</v>
       </c>
       <c r="I69" t="n">
-        <v>557884000000</v>
+        <v>1456927000000</v>
       </c>
       <c r="J69" t="n">
-        <v>677941000000</v>
+        <v>1434359000000</v>
       </c>
       <c r="K69" t="n">
-        <v>1510983000000</v>
+        <v>9715193000000</v>
       </c>
       <c r="L69" t="n">
-        <v>1484502000000</v>
+        <v>1394326000000</v>
       </c>
       <c r="M69" t="n">
-        <v>1456927000000</v>
-      </c>
-      <c r="N69" t="n">
-        <v>1434359000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>9715193000000</v>
-      </c>
-      <c r="P69" t="n">
-        <v>1394326000000</v>
-      </c>
-      <c r="Q69" t="n">
         <v>1374724000000</v>
       </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3186,53 +2980,45 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>51237822000000</v>
+        <v>34947896000000</v>
       </c>
       <c r="C79" t="n">
-        <v>48524898000000</v>
+        <v>38468091000000</v>
       </c>
       <c r="D79" t="n">
-        <v>47482831000000</v>
+        <v>47839009000000</v>
       </c>
       <c r="E79" t="n">
-        <v>43508583000000</v>
+        <v>71042766000000</v>
       </c>
       <c r="F79" t="n">
-        <v>34947896000000</v>
+        <v>56703630000000</v>
       </c>
       <c r="G79" t="n">
-        <v>38468091000000</v>
+        <v>79623409000000</v>
       </c>
       <c r="H79" t="n">
-        <v>47839009000000</v>
+        <v>75909225000000</v>
       </c>
       <c r="I79" t="n">
-        <v>71042766000000</v>
+        <v>85190105000000</v>
       </c>
       <c r="J79" t="n">
-        <v>56703630000000</v>
+        <v>84955743000000</v>
       </c>
       <c r="K79" t="n">
-        <v>79623409000000</v>
+        <v>78513434000000</v>
       </c>
       <c r="L79" t="n">
-        <v>75909225000000</v>
+        <v>70694596000000</v>
       </c>
       <c r="M79" t="n">
-        <v>85190105000000</v>
-      </c>
-      <c r="N79" t="n">
-        <v>84955743000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>78513434000000</v>
-      </c>
-      <c r="P79" t="n">
-        <v>70694596000000</v>
-      </c>
-      <c r="Q79" t="n">
         <v>63192021000000</v>
       </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3241,53 +3027,45 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>30979909000000</v>
+        <v>17616763000000</v>
       </c>
       <c r="C80" t="n">
-        <v>31526781000000</v>
+        <v>21799796000000</v>
       </c>
       <c r="D80" t="n">
-        <v>32537714000000</v>
+        <v>33691276000000</v>
       </c>
       <c r="E80" t="n">
-        <v>27580036000000</v>
+        <v>65894470000000</v>
       </c>
       <c r="F80" t="n">
-        <v>17616763000000</v>
+        <v>54619138000000</v>
       </c>
       <c r="G80" t="n">
-        <v>21799796000000</v>
+        <v>74319441000000</v>
       </c>
       <c r="H80" t="n">
-        <v>33691276000000</v>
+        <v>71102651000000</v>
       </c>
       <c r="I80" t="n">
-        <v>65894470000000</v>
+        <v>72513211000000</v>
       </c>
       <c r="J80" t="n">
-        <v>54619138000000</v>
+        <v>73629067000000</v>
       </c>
       <c r="K80" t="n">
-        <v>74319441000000</v>
+        <v>73100537000000</v>
       </c>
       <c r="L80" t="n">
-        <v>71102651000000</v>
+        <v>63991815000000</v>
       </c>
       <c r="M80" t="n">
-        <v>72513211000000</v>
-      </c>
-      <c r="N80" t="n">
-        <v>73629067000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>73100537000000</v>
-      </c>
-      <c r="P80" t="n">
-        <v>63991815000000</v>
-      </c>
-      <c r="Q80" t="n">
         <v>54961936000000</v>
       </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3296,53 +3074,45 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>20257913000000</v>
+        <v>17331133000000</v>
       </c>
       <c r="C81" t="n">
-        <v>16998117000000</v>
+        <v>16668295000000</v>
       </c>
       <c r="D81" t="n">
-        <v>14945117000000</v>
+        <v>14147733000000</v>
       </c>
       <c r="E81" t="n">
-        <v>15928547000000</v>
+        <v>5148296000000</v>
       </c>
       <c r="F81" t="n">
-        <v>17331133000000</v>
+        <v>2084492000000</v>
       </c>
       <c r="G81" t="n">
-        <v>16668295000000</v>
+        <v>5303968000000</v>
       </c>
       <c r="H81" t="n">
-        <v>14147733000000</v>
+        <v>4806574000000</v>
       </c>
       <c r="I81" t="n">
-        <v>5148296000000</v>
+        <v>12676894000000</v>
       </c>
       <c r="J81" t="n">
-        <v>2084492000000</v>
+        <v>11326676000000</v>
       </c>
       <c r="K81" t="n">
-        <v>5303968000000</v>
+        <v>5412897000000</v>
       </c>
       <c r="L81" t="n">
-        <v>4806574000000</v>
+        <v>6702781000000</v>
       </c>
       <c r="M81" t="n">
-        <v>12676894000000</v>
-      </c>
-      <c r="N81" t="n">
-        <v>11326676000000</v>
-      </c>
-      <c r="O81" t="n">
-        <v>5412897000000</v>
-      </c>
-      <c r="P81" t="n">
-        <v>6702781000000</v>
-      </c>
-      <c r="Q81" t="n">
         <v>8230085000000</v>
       </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3397,53 +3167,45 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>246239514000000</v>
+        <v>296517196000000</v>
       </c>
       <c r="C84" t="n">
-        <v>259351020000000</v>
+        <v>303631883000000</v>
       </c>
       <c r="D84" t="n">
-        <v>262539921000000</v>
+        <v>300654398000000</v>
       </c>
       <c r="E84" t="n">
-        <v>279503609000000</v>
+        <v>310924011000000</v>
       </c>
       <c r="F84" t="n">
-        <v>296517196000000</v>
+        <v>324242541000000</v>
       </c>
       <c r="G84" t="n">
-        <v>303631883000000</v>
+        <v>327318099000000</v>
       </c>
       <c r="H84" t="n">
-        <v>300654398000000</v>
+        <v>333638681000000</v>
       </c>
       <c r="I84" t="n">
-        <v>310924011000000</v>
+        <v>339768265000000</v>
       </c>
       <c r="J84" t="n">
-        <v>324242541000000</v>
+        <v>340717466000000</v>
       </c>
       <c r="K84" t="n">
-        <v>327318099000000</v>
+        <v>361841278000000</v>
       </c>
       <c r="L84" t="n">
-        <v>333638681000000</v>
+        <v>391481655000000</v>
       </c>
       <c r="M84" t="n">
-        <v>339768265000000</v>
-      </c>
-      <c r="N84" t="n">
-        <v>340717466000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>361841278000000</v>
-      </c>
-      <c r="P84" t="n">
-        <v>391481655000000</v>
-      </c>
-      <c r="Q84" t="n">
         <v>409618315000000</v>
       </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3660,32 +3422,30 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="n">
-        <v>16451000000</v>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>4952170000000</v>
+      </c>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>67289000000</v>
+      </c>
+      <c r="J94" t="n">
+        <v>248643000000</v>
+      </c>
       <c r="K94" t="n">
-        <v>4952170000000</v>
+        <v>1615605000000</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>67289000000</v>
-      </c>
-      <c r="N94" t="n">
-        <v>248643000000</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1615605000000</v>
-      </c>
+        <v>1452356000000</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="n">
-        <v>1452356000000</v>
-      </c>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3763,53 +3523,45 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>339036003000000</v>
+        <v>378050146000000</v>
       </c>
       <c r="C98" t="n">
-        <v>346933351000000</v>
+        <v>388524874000000</v>
       </c>
       <c r="D98" t="n">
-        <v>349777399000000</v>
+        <v>392795260000000</v>
       </c>
       <c r="E98" t="n">
-        <v>368331727000000</v>
+        <v>431364921000000</v>
       </c>
       <c r="F98" t="n">
-        <v>378050146000000</v>
+        <v>435915309000000</v>
       </c>
       <c r="G98" t="n">
-        <v>388524874000000</v>
+        <v>470880249000000</v>
       </c>
       <c r="H98" t="n">
-        <v>392795260000000</v>
+        <v>477734525000000</v>
       </c>
       <c r="I98" t="n">
-        <v>431364921000000</v>
+        <v>482450150000000</v>
       </c>
       <c r="J98" t="n">
-        <v>435915309000000</v>
+        <v>486265786000000</v>
       </c>
       <c r="K98" t="n">
-        <v>470880249000000</v>
+        <v>508595013000000</v>
       </c>
       <c r="L98" t="n">
-        <v>477734525000000</v>
+        <v>524380204000000</v>
       </c>
       <c r="M98" t="n">
-        <v>482450150000000</v>
-      </c>
-      <c r="N98" t="n">
-        <v>486265786000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>508595013000000</v>
-      </c>
-      <c r="P98" t="n">
-        <v>524380204000000</v>
-      </c>
-      <c r="Q98" t="n">
         <v>537363599000000</v>
       </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3841,53 +3593,45 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>12036161000000</v>
+        <v>17558331000000</v>
       </c>
       <c r="C100" t="n">
-        <v>14550682000000</v>
+        <v>17558331000000</v>
       </c>
       <c r="D100" t="n">
-        <v>14550531000000</v>
+        <v>17510091000000</v>
       </c>
       <c r="E100" t="n">
-        <v>17558331000000</v>
+        <v>19260488000000</v>
       </c>
       <c r="F100" t="n">
-        <v>17558331000000</v>
+        <v>19260488000000</v>
       </c>
       <c r="G100" t="n">
-        <v>17558331000000</v>
+        <v>26673698000000</v>
       </c>
       <c r="H100" t="n">
-        <v>17510091000000</v>
+        <v>26673698000000</v>
       </c>
       <c r="I100" t="n">
-        <v>19260488000000</v>
+        <v>26673698000000</v>
       </c>
       <c r="J100" t="n">
-        <v>19260488000000</v>
+        <v>26673698000000</v>
       </c>
       <c r="K100" t="n">
-        <v>26673698000000</v>
+        <v>30673832000000</v>
       </c>
       <c r="L100" t="n">
-        <v>26673698000000</v>
+        <v>30673832000000</v>
       </c>
       <c r="M100" t="n">
-        <v>26673698000000</v>
-      </c>
-      <c r="N100" t="n">
-        <v>26673698000000</v>
-      </c>
-      <c r="O100" t="n">
         <v>30673832000000</v>
       </c>
-      <c r="P100" t="n">
-        <v>30673832000000</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>30673832000000</v>
-      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3980,16 +3724,16 @@
         <v>101716000000</v>
       </c>
       <c r="G104" t="n">
-        <v>101716000000</v>
+        <v>1449603000000</v>
       </c>
       <c r="H104" t="n">
-        <v>101716000000</v>
+        <v>1449603000000</v>
       </c>
       <c r="I104" t="n">
-        <v>101716000000</v>
+        <v>1449603000000</v>
       </c>
       <c r="J104" t="n">
-        <v>101716000000</v>
+        <v>1449603000000</v>
       </c>
       <c r="K104" t="n">
         <v>1449603000000</v>
@@ -3998,20 +3742,12 @@
         <v>1449603000000</v>
       </c>
       <c r="M104" t="n">
-        <v>1449603000000</v>
-      </c>
-      <c r="N104" t="n">
-        <v>1449603000000</v>
-      </c>
-      <c r="O104" t="n">
-        <v>1449603000000</v>
-      </c>
-      <c r="P104" t="n">
-        <v>1449603000000</v>
-      </c>
-      <c r="Q104" t="n">
         <v>1499603000000</v>
       </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4055,18 +3791,10 @@
       <c r="M105" t="n">
         <v>-5260000000</v>
       </c>
-      <c r="N105" t="n">
-        <v>-5260000000</v>
-      </c>
-      <c r="O105" t="n">
-        <v>-5260000000</v>
-      </c>
-      <c r="P105" t="n">
-        <v>-5260000000</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>-5260000000</v>
-      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4190,53 +3918,45 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1520002000000</v>
+        <v>1822631000000</v>
       </c>
       <c r="C111" t="n">
-        <v>1475320000000</v>
+        <v>1822231000000</v>
       </c>
       <c r="D111" t="n">
-        <v>1797576000000</v>
+        <v>2195273000000</v>
       </c>
       <c r="E111" t="n">
-        <v>1823340000000</v>
+        <v>2201493000000</v>
       </c>
       <c r="F111" t="n">
-        <v>1822631000000</v>
+        <v>2205650000000</v>
       </c>
       <c r="G111" t="n">
-        <v>1822231000000</v>
+        <v>2900877000000</v>
       </c>
       <c r="H111" t="n">
-        <v>2195273000000</v>
+        <v>2912309000000</v>
       </c>
       <c r="I111" t="n">
-        <v>2201493000000</v>
+        <v>2904688000000</v>
       </c>
       <c r="J111" t="n">
-        <v>2205650000000</v>
+        <v>2902723000000</v>
       </c>
       <c r="K111" t="n">
-        <v>2900877000000</v>
+        <v>2910898000000</v>
       </c>
       <c r="L111" t="n">
-        <v>2912309000000</v>
+        <v>4056810000000</v>
       </c>
       <c r="M111" t="n">
-        <v>2904688000000</v>
-      </c>
-      <c r="N111" t="n">
-        <v>2902723000000</v>
-      </c>
-      <c r="O111" t="n">
-        <v>2910898000000</v>
-      </c>
-      <c r="P111" t="n">
-        <v>4056810000000</v>
-      </c>
-      <c r="Q111" t="n">
         <v>4036207000000</v>
       </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4360,43 +4080,39 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>12123000000</v>
+        <v>5873000000</v>
       </c>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="n">
-        <v>7494000000</v>
-      </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>-3746000000</v>
+      </c>
       <c r="F117" t="n">
-        <v>5873000000</v>
+        <v>2014000000</v>
       </c>
       <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>-340224000000</v>
+      </c>
       <c r="I117" t="n">
-        <v>-3746000000</v>
+        <v>-520160000000</v>
       </c>
       <c r="J117" t="n">
-        <v>2014000000</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+        <v>-627315000000</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-606379000000</v>
+      </c>
       <c r="L117" t="n">
-        <v>-340224000000</v>
+        <v>-613051000000</v>
       </c>
       <c r="M117" t="n">
-        <v>-520160000000</v>
-      </c>
-      <c r="N117" t="n">
-        <v>-627315000000</v>
-      </c>
-      <c r="O117" t="n">
-        <v>-606379000000</v>
-      </c>
-      <c r="P117" t="n">
-        <v>-613051000000</v>
-      </c>
-      <c r="Q117" t="n">
         <v>-663587000000</v>
       </c>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
